--- a/tabular/core/idv-refseqs-seg4.xlsx
+++ b/tabular/core/idv-refseqs-seg4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/Flu-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304E3DEB-70EB-744E-9F56-4D77B9D9E00D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A875527F-C42B-4D47-8FD7-5F8B78B8F279}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="1000" windowWidth="27160" windowHeight="16440" xr2:uid="{CF90CF00-BDB8-ED49-B0D8-D449A237C305}"/>
   </bookViews>
@@ -511,7 +511,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C8" activeCellId="1" sqref="A14 C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
